--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.062</v>
+        <v>-12.1309</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -553,10 +553,10 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.8293</v>
+        <v>-12.8387</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.145499999999994</v>
+        <v>-7.327899999999995</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.710199999999997</v>
+        <v>-8.361399999999994</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.6875</v>
+        <v>-14.0645</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.720399999999994</v>
+        <v>-8.533399999999995</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.068400000000006</v>
+        <v>-8.066400000000007</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.143699999999995</v>
+        <v>-7.347299999999998</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.2468</v>
+        <v>-12.5759</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.06180000000001</v>
+        <v>-11.30220000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.81580000000001</v>
+        <v>-13.22940000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.021999999999998</v>
+        <v>-7.989199999999999</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.8252</v>
+        <v>-12.88620000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.322300000000002</v>
+        <v>-8.266700000000004</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.953599999999998</v>
+        <v>-7.794599999999996</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.197499999999996</v>
+        <v>-8.167399999999997</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.392099999999999</v>
+        <v>-7.532499999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1087</v>
+        <v>-11.22130000000001</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.8916</v>
+        <v>-13.85839999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1556,10 +1556,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-12.59859999999999</v>
+        <v>-12.1791</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.792599999999998</v>
+        <v>-7.9534</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.485499999999997</v>
+        <v>-6.3423</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.218500000000002</v>
+        <v>-6.2864</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.660200000000001</v>
+        <v>-8.627200000000004</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.540000000000003</v>
+        <v>-6.433400000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.452900000000001</v>
+        <v>-8.271199999999999</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.8984</v>
+        <v>-12.4551</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
